--- a/artfynd/A 38081-2020.xlsx
+++ b/artfynd/A 38081-2020.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1866555</v>
+        <v>479707</v>
       </c>
       <c r="B3" t="n">
-        <v>73677</v>
+        <v>89544</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6439</v>
+        <v>1503</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>520204.8498100823</v>
+        <v>520223.7198352451</v>
       </c>
       <c r="R3" t="n">
-        <v>6939373.702835137</v>
+        <v>6939457.686950494</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -897,6 +897,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -917,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1885449</v>
+        <v>1866555</v>
       </c>
       <c r="B4" t="n">
-        <v>78502</v>
+        <v>73677</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,21 +938,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>6439</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>520245.2562443725</v>
+        <v>520204.8498100823</v>
       </c>
       <c r="R4" t="n">
-        <v>6939407.128537474</v>
+        <v>6939373.702835137</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1033,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>479707</v>
+        <v>1885449</v>
       </c>
       <c r="B5" t="n">
-        <v>89544</v>
+        <v>78502</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,25 +1050,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1503</v>
+        <v>6456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>520223.7198352451</v>
+        <v>520245.2562443725</v>
       </c>
       <c r="R5" t="n">
-        <v>6939457.686950494</v>
+        <v>6939407.128537474</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1129,11 +1134,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">

--- a/artfynd/A 38081-2020.xlsx
+++ b/artfynd/A 38081-2020.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>479707</v>
+        <v>1866555</v>
       </c>
       <c r="B3" t="n">
-        <v>89544</v>
+        <v>73677</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1503</v>
+        <v>6439</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>520223.7198352451</v>
+        <v>520204.8498100823</v>
       </c>
       <c r="R3" t="n">
-        <v>6939457.686950494</v>
+        <v>6939373.702835137</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -897,11 +897,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -922,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1866555</v>
+        <v>1885449</v>
       </c>
       <c r="B4" t="n">
-        <v>73677</v>
+        <v>78502</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +933,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6439</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>520204.8498100823</v>
+        <v>520245.2562443725</v>
       </c>
       <c r="R4" t="n">
-        <v>6939373.702835137</v>
+        <v>6939407.128537474</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1038,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1885449</v>
+        <v>479707</v>
       </c>
       <c r="B5" t="n">
-        <v>78502</v>
+        <v>89544</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,25 +1045,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>1503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1078,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>520245.2562443725</v>
+        <v>520223.7198352451</v>
       </c>
       <c r="R5" t="n">
-        <v>6939407.128537474</v>
+        <v>6939457.686950494</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1134,6 +1129,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
